--- a/Data/g13.10.xlsx
+++ b/Data/g13.10.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,10 +365,15 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Ano</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Índice</t>
         </is>
@@ -382,10 +387,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Índice do emprego formal: 2012=100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>31/12/2012</t>
         </is>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>100</v>
       </c>
     </row>
@@ -397,10 +407,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Índice do emprego formal: 2012=100</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>31/12/2013</t>
         </is>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>103.1389832071296</v>
       </c>
     </row>
@@ -412,10 +427,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Índice do emprego formal: 2012=100</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>31/12/2014</t>
         </is>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>104.4518654446416</v>
       </c>
     </row>
@@ -427,10 +447,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Índice do emprego formal: 2012=100</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>31/12/2015</t>
         </is>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>101.2686711767483</v>
       </c>
     </row>
@@ -442,10 +467,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Índice do emprego formal: 2012=100</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>31/12/2016</t>
         </is>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>97.0531985781662</v>
       </c>
     </row>
@@ -457,10 +487,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Índice do emprego formal: 2012=100</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>31/12/2017</t>
         </is>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>97.51969248554406</v>
       </c>
     </row>
@@ -472,10 +507,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Índice do emprego formal: 2012=100</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>31/12/2018</t>
         </is>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>98.25617475670221</v>
       </c>
     </row>
@@ -487,10 +527,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Índice do emprego formal: 2012=100</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>31/12/2019</t>
         </is>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>98.4360721799614</v>
       </c>
     </row>
@@ -502,10 +547,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Índice do emprego formal: 2012=100</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>31/12/2020</t>
         </is>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>97.42400088733973</v>
       </c>
     </row>
@@ -517,10 +567,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Índice do emprego formal: 2012=100</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>31/12/2021</t>
         </is>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>102.6763157837069</v>
       </c>
     </row>
@@ -532,10 +587,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Índice do emprego formal: 2012=100</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>31/12/2012</t>
         </is>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>100</v>
       </c>
     </row>
@@ -547,10 +607,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>Índice do emprego formal: 2012=100</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>31/12/2013</t>
         </is>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>103.6355948692967</v>
       </c>
     </row>
@@ -562,10 +627,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Índice do emprego formal: 2012=100</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>31/12/2014</t>
         </is>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>106.0289501803901</v>
       </c>
     </row>
@@ -577,10 +647,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Índice do emprego formal: 2012=100</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>31/12/2015</t>
         </is>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>103.3171317397832</v>
       </c>
     </row>
@@ -592,10 +667,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Índice do emprego formal: 2012=100</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>31/12/2016</t>
         </is>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>97.94100137039801</v>
       </c>
     </row>
@@ -607,10 +687,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>Índice do emprego formal: 2012=100</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>31/12/2017</t>
         </is>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>99.1884304229287</v>
       </c>
     </row>
@@ -622,10 +707,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>Índice do emprego formal: 2012=100</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>31/12/2018</t>
         </is>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>100.39102317324</v>
       </c>
     </row>
@@ -637,10 +727,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>Índice do emprego formal: 2012=100</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>31/12/2019</t>
         </is>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>99.24364571380275</v>
       </c>
     </row>
@@ -652,10 +747,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>Índice do emprego formal: 2012=100</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>31/12/2020</t>
         </is>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>97.15301090513606</v>
       </c>
     </row>
@@ -667,10 +767,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>Índice do emprego formal: 2012=100</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>31/12/2021</t>
         </is>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>104.8457803025835</v>
       </c>
     </row>
@@ -682,10 +787,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>Índice do emprego formal: 2012=100</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>31/12/2012</t>
         </is>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>100</v>
       </c>
     </row>
@@ -697,10 +807,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>Índice do emprego formal: 2012=100</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>31/12/2013</t>
         </is>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>104.4447075599668</v>
       </c>
     </row>
@@ -712,10 +827,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>Índice do emprego formal: 2012=100</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>31/12/2014</t>
         </is>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>107.3398934896926</v>
       </c>
     </row>
@@ -727,10 +847,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>Índice do emprego formal: 2012=100</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>31/12/2015</t>
         </is>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>104.2369892949162</v>
       </c>
     </row>
@@ -742,10 +867,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>Índice do emprego formal: 2012=100</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>31/12/2016</t>
         </is>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>98.60131220286894</v>
       </c>
     </row>
@@ -757,10 +887,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>Índice do emprego formal: 2012=100</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>31/12/2017</t>
         </is>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>100.5032084363988</v>
       </c>
     </row>
@@ -772,10 +907,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>Índice do emprego formal: 2012=100</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>31/12/2018</t>
         </is>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>100.2172419029773</v>
       </c>
     </row>
@@ -787,10 +927,15 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>Índice do emprego formal: 2012=100</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>31/12/2019</t>
         </is>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>90.82719230284141</v>
       </c>
     </row>
@@ -802,10 +947,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>Índice do emprego formal: 2012=100</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>31/12/2020</t>
         </is>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>94.2206961521929</v>
       </c>
     </row>
@@ -817,10 +967,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>Índice do emprego formal: 2012=100</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>31/12/2021</t>
         </is>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>100.9171005927821</v>
       </c>
     </row>

--- a/Data/g13.10.xlsx
+++ b/Data/g13.10.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,17 +382,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Índice do emprego formal: 2012=100</t>
+          <t>Índice do emprego formal: 2013=100</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>31/12/2012</t>
+          <t>31/12/2013</t>
         </is>
       </c>
       <c r="D2">
@@ -402,197 +402,197 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Índice do emprego formal: 2012=100</t>
+          <t>Índice do emprego formal: 2013=100</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>31/12/2013</t>
+          <t>31/12/2014</t>
         </is>
       </c>
       <c r="D3">
-        <v>103.1389832071296</v>
+        <v>102.3093950626827</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Índice do emprego formal: 2012=100</t>
+          <t>Índice do emprego formal: 2013=100</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>31/12/2015</t>
         </is>
       </c>
       <c r="D4">
-        <v>104.4518654446416</v>
+        <v>99.69270873591725</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Índice do emprego formal: 2012=100</t>
+          <t>Índice do emprego formal: 2013=100</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>31/12/2015</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D5">
-        <v>101.2686711767483</v>
+        <v>94.50517603910063</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Índice do emprego formal: 2012=100</t>
+          <t>Índice do emprego formal: 2013=100</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D6">
-        <v>97.0531985781662</v>
+        <v>95.70884457991802</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Índice do emprego formal: 2012=100</t>
+          <t>Índice do emprego formal: 2013=100</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D7">
-        <v>97.51969248554406</v>
+        <v>96.86924970117771</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Índice do emprego formal: 2012=100</t>
+          <t>Índice do emprego formal: 2013=100</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D8">
-        <v>98.25617475670221</v>
+        <v>95.76212288737956</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Índice do emprego formal: 2012=100</t>
+          <t>Índice do emprego formal: 2013=100</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D9">
-        <v>98.4360721799614</v>
+        <v>93.74482872189195</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Índice do emprego formal: 2012=100</t>
+          <t>Índice do emprego formal: 2013=100</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D10">
-        <v>97.42400088733973</v>
+        <v>101.1677314486524</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Índice do emprego formal: 2012=100</t>
+          <t>Índice do emprego formal: 2013=100</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D11">
-        <v>102.6763157837069</v>
+        <v>109.5253234394307</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Índice do emprego formal: 2012=100</t>
+          <t>Índice do emprego formal: 2013=100</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>31/12/2012</t>
+          <t>31/12/2013</t>
         </is>
       </c>
       <c r="D12">
@@ -602,381 +602,181 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Índice do emprego formal: 2012=100</t>
+          <t>Índice do emprego formal: 2013=100</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>31/12/2013</t>
+          <t>31/12/2014</t>
         </is>
       </c>
       <c r="D13">
-        <v>103.6355948692967</v>
+        <v>102.7719795453145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Índice do emprego formal: 2012=100</t>
+          <t>Índice do emprego formal: 2013=100</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>31/12/2015</t>
         </is>
       </c>
       <c r="D14">
-        <v>106.0289501803901</v>
+        <v>99.80112131107141</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Índice do emprego formal: 2012=100</t>
+          <t>Índice do emprego formal: 2013=100</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>31/12/2015</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D15">
-        <v>103.3171317397832</v>
+        <v>94.40527385866552</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Índice do emprego formal: 2012=100</t>
+          <t>Índice do emprego formal: 2013=100</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D16">
-        <v>97.94100137039801</v>
+        <v>96.22623375023103</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Índice do emprego formal: 2012=100</t>
+          <t>Índice do emprego formal: 2013=100</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D17">
-        <v>99.1884304229287</v>
+        <v>95.95243669521287</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Índice do emprego formal: 2012=100</t>
+          <t>Índice do emprego formal: 2013=100</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D18">
-        <v>100.39102317324</v>
+        <v>86.96198632246936</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Índice do emprego formal: 2012=100</t>
+          <t>Índice do emprego formal: 2013=100</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D19">
-        <v>99.24364571380275</v>
+        <v>90.21107756761754</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Índice do emprego formal: 2012=100</t>
+          <t>Índice do emprego formal: 2013=100</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D20">
-        <v>97.15301090513606</v>
+        <v>96.62251247612595</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Sergipe</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Índice do emprego formal: 2012=100</t>
+          <t>Índice do emprego formal: 2013=100</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D21">
-        <v>104.8457803025835</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Índice do emprego formal: 2012=100</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>31/12/2012</t>
-        </is>
-      </c>
-      <c r="D22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Índice do emprego formal: 2012=100</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>31/12/2013</t>
-        </is>
-      </c>
-      <c r="D23">
-        <v>104.4447075599668</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Índice do emprego formal: 2012=100</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>31/12/2014</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>107.3398934896926</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Índice do emprego formal: 2012=100</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>31/12/2015</t>
-        </is>
-      </c>
-      <c r="D25">
-        <v>104.2369892949162</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Índice do emprego formal: 2012=100</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="D26">
-        <v>98.60131220286894</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Índice do emprego formal: 2012=100</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="D27">
-        <v>100.5032084363988</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Índice do emprego formal: 2012=100</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="D28">
-        <v>100.2172419029773</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Índice do emprego formal: 2012=100</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="D29">
-        <v>90.82719230284141</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Índice do emprego formal: 2012=100</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>31/12/2020</t>
-        </is>
-      </c>
-      <c r="D30">
-        <v>94.2206961521929</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Índice do emprego formal: 2012=100</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>31/12/2021</t>
-        </is>
-      </c>
-      <c r="D31">
-        <v>100.9171005927821</v>
+        <v>102.7995810486107</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g13.10.xlsx
+++ b/Data/g13.10.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,7 +382,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -402,7 +402,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -416,13 +416,13 @@
         </is>
       </c>
       <c r="D3">
-        <v>102.3093950626827</v>
+        <v>101.2729253253112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -436,13 +436,13 @@
         </is>
       </c>
       <c r="D4">
-        <v>99.69270873591725</v>
+        <v>99.86379134956168</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -456,13 +456,13 @@
         </is>
       </c>
       <c r="D5">
-        <v>94.50517603910063</v>
+        <v>94.09943317286582</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -476,13 +476,13 @@
         </is>
       </c>
       <c r="D6">
-        <v>95.70884457991802</v>
+        <v>94.55172957222145</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -496,13 +496,13 @@
         </is>
       </c>
       <c r="D7">
-        <v>96.86924970117771</v>
+        <v>95.26579737496398</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -516,13 +516,13 @@
         </is>
       </c>
       <c r="D8">
-        <v>95.76212288737956</v>
+        <v>103.3813605432476</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -536,13 +536,13 @@
         </is>
       </c>
       <c r="D9">
-        <v>93.74482872189195</v>
+        <v>100.5542731061483</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -556,13 +556,13 @@
         </is>
       </c>
       <c r="D10">
-        <v>101.1677314486524</v>
+        <v>99.55144222900864</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="D11">
-        <v>109.5253234394307</v>
+        <v>107.8499571171155</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -602,7 +602,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -616,13 +616,13 @@
         </is>
       </c>
       <c r="D13">
-        <v>102.7719795453145</v>
+        <v>102.3093950626827</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="D14">
-        <v>99.80112131107141</v>
+        <v>99.69270873591725</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="D15">
-        <v>94.40527385866552</v>
+        <v>94.50517603910063</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -676,13 +676,13 @@
         </is>
       </c>
       <c r="D16">
-        <v>96.22623375023103</v>
+        <v>95.70884457991802</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -696,13 +696,13 @@
         </is>
       </c>
       <c r="D17">
-        <v>95.95243669521287</v>
+        <v>96.86924970117771</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -716,13 +716,13 @@
         </is>
       </c>
       <c r="D18">
-        <v>86.96198632246936</v>
+        <v>95.76212288737956</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -736,13 +736,13 @@
         </is>
       </c>
       <c r="D19">
-        <v>90.21107756761754</v>
+        <v>93.74482872189195</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -756,26 +756,226 @@
         </is>
       </c>
       <c r="D20">
-        <v>96.62251247612595</v>
+        <v>101.1677314486524</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Índice do emprego formal: 2013=100</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>31/12/2022</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>109.5253234394307</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Índice do emprego formal: 2013=100</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Índice do emprego formal: 2013=100</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>31/12/2013</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Índice do emprego formal: 2013=100</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>31/12/2014</t>
+        </is>
+      </c>
+      <c r="D23">
+        <v>102.7719795453145</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Índice do emprego formal: 2013=100</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>31/12/2015</t>
+        </is>
+      </c>
+      <c r="D24">
+        <v>99.80112131107141</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Índice do emprego formal: 2013=100</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>31/12/2016</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>94.40527385866552</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Índice do emprego formal: 2013=100</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>31/12/2017</t>
+        </is>
+      </c>
+      <c r="D26">
+        <v>96.22623375023103</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Índice do emprego formal: 2013=100</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>31/12/2018</t>
+        </is>
+      </c>
+      <c r="D27">
+        <v>95.95243669521287</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Índice do emprego formal: 2013=100</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="D28">
+        <v>86.96198632246936</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Índice do emprego formal: 2013=100</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D29">
+        <v>90.21107756761754</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Índice do emprego formal: 2013=100</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D30">
+        <v>96.62251247612595</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Índice do emprego formal: 2013=100</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>31/12/2022</t>
         </is>
       </c>
-      <c r="D21">
+      <c r="D31">
         <v>102.7995810486107</v>
       </c>
     </row>

--- a/Data/g13.10.xlsx
+++ b/Data/g13.10.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -592,11 +592,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>31/12/2013</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>111.7633020039681</v>
       </c>
     </row>
     <row r="13">
@@ -612,11 +612,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>31/12/2013</t>
         </is>
       </c>
       <c r="D13">
-        <v>102.3093950626827</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -632,11 +632,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>31/12/2015</t>
+          <t>31/12/2014</t>
         </is>
       </c>
       <c r="D14">
-        <v>99.69270873591725</v>
+        <v>102.3093950626827</v>
       </c>
     </row>
     <row r="15">
@@ -652,11 +652,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2015</t>
         </is>
       </c>
       <c r="D15">
-        <v>94.50517603910063</v>
+        <v>99.69270873591725</v>
       </c>
     </row>
     <row r="16">
@@ -672,11 +672,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D16">
-        <v>95.70884457991802</v>
+        <v>94.50517603910063</v>
       </c>
     </row>
     <row r="17">
@@ -692,11 +692,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D17">
-        <v>96.86924970117771</v>
+        <v>95.70884457991802</v>
       </c>
     </row>
     <row r="18">
@@ -712,11 +712,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D18">
-        <v>95.76212288737956</v>
+        <v>96.86924970117771</v>
       </c>
     </row>
     <row r="19">
@@ -732,11 +732,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D19">
-        <v>93.74482872189195</v>
+        <v>95.76212288737956</v>
       </c>
     </row>
     <row r="20">
@@ -752,11 +752,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2020</t>
         </is>
       </c>
       <c r="D20">
-        <v>101.1677314486524</v>
+        <v>93.74482872189195</v>
       </c>
     </row>
     <row r="21">
@@ -772,17 +772,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>31/12/2022</t>
+          <t>31/12/2021</t>
         </is>
       </c>
       <c r="D21">
-        <v>109.5253234394307</v>
+        <v>101.1677314486524</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -792,17 +792,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>31/12/2013</t>
+          <t>31/12/2022</t>
         </is>
       </c>
       <c r="D22">
-        <v>100</v>
+        <v>109.5253234394307</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -812,11 +812,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>31/12/2014</t>
+          <t>31/12/2023</t>
         </is>
       </c>
       <c r="D23">
-        <v>102.7719795453145</v>
+        <v>115.6776572779893</v>
       </c>
     </row>
     <row r="24">
@@ -832,11 +832,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>31/12/2015</t>
+          <t>31/12/2013</t>
         </is>
       </c>
       <c r="D24">
-        <v>99.80112131107141</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
@@ -852,11 +852,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>31/12/2016</t>
+          <t>31/12/2014</t>
         </is>
       </c>
       <c r="D25">
-        <v>94.40527385866552</v>
+        <v>102.7719795453145</v>
       </c>
     </row>
     <row r="26">
@@ -872,11 +872,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>31/12/2017</t>
+          <t>31/12/2015</t>
         </is>
       </c>
       <c r="D26">
-        <v>96.22623375023103</v>
+        <v>99.80112131107141</v>
       </c>
     </row>
     <row r="27">
@@ -892,11 +892,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>31/12/2018</t>
+          <t>31/12/2016</t>
         </is>
       </c>
       <c r="D27">
-        <v>95.95243669521287</v>
+        <v>94.40527385866552</v>
       </c>
     </row>
     <row r="28">
@@ -912,11 +912,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>31/12/2019</t>
+          <t>31/12/2017</t>
         </is>
       </c>
       <c r="D28">
-        <v>86.96198632246936</v>
+        <v>96.22623375023103</v>
       </c>
     </row>
     <row r="29">
@@ -932,11 +932,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>31/12/2020</t>
+          <t>31/12/2018</t>
         </is>
       </c>
       <c r="D29">
-        <v>90.21107756761754</v>
+        <v>95.95243669521287</v>
       </c>
     </row>
     <row r="30">
@@ -952,11 +952,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>31/12/2021</t>
+          <t>31/12/2019</t>
         </is>
       </c>
       <c r="D30">
-        <v>96.62251247612595</v>
+        <v>86.96198632246936</v>
       </c>
     </row>
     <row r="31">
@@ -972,11 +972,71 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>31/12/2020</t>
+        </is>
+      </c>
+      <c r="D31">
+        <v>90.21107756761754</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Índice do emprego formal: 2013=100</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>31/12/2021</t>
+        </is>
+      </c>
+      <c r="D32">
+        <v>96.62251247612595</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Índice do emprego formal: 2013=100</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>31/12/2022</t>
         </is>
       </c>
-      <c r="D31">
+      <c r="D33">
         <v>102.7995810486107</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Índice do emprego formal: 2013=100</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
+      <c r="D34">
+        <v>111.417411126856</v>
       </c>
     </row>
   </sheetData>
